--- a/Code/Results/Cases/Case_3_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9133892850133805</v>
+        <v>0.3270934207224627</v>
       </c>
       <c r="C2">
-        <v>0.1211643762244989</v>
+        <v>0.0497618483414044</v>
       </c>
       <c r="D2">
-        <v>0.08365275217907708</v>
+        <v>0.0340838927683933</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3453283368436573</v>
+        <v>0.6015752203836726</v>
       </c>
       <c r="G2">
-        <v>0.0008015123919656302</v>
+        <v>0.002420357861280805</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9379575949204479</v>
+        <v>0.3005255237223139</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6944850991218026</v>
+        <v>1.26449994209834</v>
       </c>
       <c r="O2">
-        <v>0.9644615583030998</v>
+        <v>2.051033743632459</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7943697212988639</v>
+        <v>0.2910627217096078</v>
       </c>
       <c r="C3">
-        <v>0.1092396722794717</v>
+        <v>0.04581369930286883</v>
       </c>
       <c r="D3">
-        <v>0.07440867013325203</v>
+        <v>0.03098075010060342</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3326795386726147</v>
+        <v>0.6035687897970519</v>
       </c>
       <c r="G3">
-        <v>0.0008044913994447298</v>
+        <v>0.002422333900540982</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.818019676114659</v>
+        <v>0.2632700589465173</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7210596297990612</v>
+        <v>1.276537187602472</v>
       </c>
       <c r="O3">
-        <v>0.9631012941217278</v>
+        <v>2.068598017890963</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7213455887684859</v>
+        <v>0.2689476428724333</v>
       </c>
       <c r="C4">
-        <v>0.1019000627580624</v>
+        <v>0.04337394687955509</v>
       </c>
       <c r="D4">
-        <v>0.06871510854630714</v>
+        <v>0.02906154336075417</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3256775335852566</v>
+        <v>0.6051846900448723</v>
       </c>
       <c r="G4">
-        <v>0.0008063830435138134</v>
+        <v>0.00242361251211975</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7443475795791983</v>
+        <v>0.2403476157911086</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7382912990832189</v>
+        <v>1.284386696939677</v>
       </c>
       <c r="O4">
-        <v>0.9646633736668946</v>
+        <v>2.080629194667281</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6915934245258484</v>
+        <v>0.2599381430966332</v>
       </c>
       <c r="C5">
-        <v>0.09890415256904816</v>
+        <v>0.04237587996131253</v>
       </c>
       <c r="D5">
-        <v>0.06639014697954337</v>
+        <v>0.02827600853748891</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3230076749874087</v>
+        <v>0.6059417242811875</v>
       </c>
       <c r="G5">
-        <v>0.0008071698440937471</v>
+        <v>0.002424150027636726</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.714310884307011</v>
+        <v>0.2309951949211069</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7455379055437739</v>
+        <v>1.287700812099093</v>
       </c>
       <c r="O5">
-        <v>0.9658782336111358</v>
+        <v>2.085845407259228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6866532253024786</v>
+        <v>0.2584422951904912</v>
       </c>
       <c r="C6">
-        <v>0.09840637089337179</v>
+        <v>0.04220992130038326</v>
       </c>
       <c r="D6">
-        <v>0.0660037898093222</v>
+        <v>0.02814536444959259</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3225751831135995</v>
+        <v>0.6060733812187138</v>
       </c>
       <c r="G6">
-        <v>0.0008073014606714322</v>
+        <v>0.002424240277987827</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7093222211194217</v>
+        <v>0.229441565045974</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7467546063475048</v>
+        <v>1.288258088638852</v>
       </c>
       <c r="O6">
-        <v>0.9661141901394217</v>
+        <v>2.086730482618066</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7209443274931573</v>
+        <v>0.2688261264105165</v>
       </c>
       <c r="C7">
-        <v>0.1018596795640008</v>
+        <v>0.04336050209145981</v>
       </c>
       <c r="D7">
-        <v>0.06868377313985263</v>
+        <v>0.02905096324384004</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.32564079513417</v>
+        <v>0.6051945006677784</v>
       </c>
       <c r="G7">
-        <v>0.0008063935897706392</v>
+        <v>0.00242361969444852</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7439425630757341</v>
+        <v>0.2402215309036535</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7383881271696886</v>
+        <v>1.284430925020143</v>
       </c>
       <c r="O7">
-        <v>0.964677447844565</v>
+        <v>2.080698273437292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.872335134041748</v>
+        <v>0.3146687320148089</v>
       </c>
       <c r="C8">
-        <v>0.1170561247617172</v>
+        <v>0.04840379832420183</v>
       </c>
       <c r="D8">
-        <v>0.08046883927946169</v>
+        <v>0.03301683224415086</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3408030278622505</v>
+        <v>0.6021812815665655</v>
       </c>
       <c r="G8">
-        <v>0.0008025267118766215</v>
+        <v>0.002421025671225537</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8966046523544833</v>
+        <v>0.2876900274418972</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7034547701027982</v>
+        <v>1.268555239916822</v>
       </c>
       <c r="O8">
-        <v>0.9634799113041055</v>
+        <v>2.056831123455709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.170034745646603</v>
+        <v>0.4046074269969608</v>
       </c>
       <c r="C9">
-        <v>0.1467402230505996</v>
+        <v>0.05816757619911073</v>
       </c>
       <c r="D9">
-        <v>0.1034569222391326</v>
+        <v>0.0406822876797861</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3770127652677786</v>
+        <v>0.5993816696541501</v>
       </c>
       <c r="G9">
-        <v>0.0007954294635374963</v>
+        <v>0.002416454915803331</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.196099518085504</v>
+        <v>0.3803776747559198</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6424651242257227</v>
+        <v>1.241058901525406</v>
       </c>
       <c r="O9">
-        <v>0.9813092866348541</v>
+        <v>2.019923085690252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.38985203877445</v>
+        <v>0.4706883870153149</v>
       </c>
       <c r="C10">
-        <v>0.1685180576842242</v>
+        <v>0.06526136707520891</v>
       </c>
       <c r="D10">
-        <v>0.1202991600331416</v>
+        <v>0.04624441609881558</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4081651471380923</v>
+        <v>0.5992216058381885</v>
       </c>
       <c r="G10">
-        <v>0.0007904959737184775</v>
+        <v>0.002413408421820783</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.416767329522202</v>
+        <v>0.4482101645114938</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6026069602224879</v>
+        <v>1.223069562461632</v>
       </c>
       <c r="O10">
-        <v>1.008394369254745</v>
+        <v>1.998845657667289</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.49023281931872</v>
+        <v>0.5007466181838538</v>
       </c>
       <c r="C11">
-        <v>0.178428320708008</v>
+        <v>0.06847066934234647</v>
       </c>
       <c r="D11">
-        <v>0.1279574380352244</v>
+        <v>0.04875931925090526</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4234654014710202</v>
+        <v>0.5995609981261296</v>
       </c>
       <c r="G11">
-        <v>0.0007883090624937167</v>
+        <v>0.002412089525166103</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.5174236209904</v>
+        <v>0.4790069430243307</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5856358879424732</v>
+        <v>1.215365230350663</v>
       </c>
       <c r="O11">
-        <v>1.024147252557341</v>
+        <v>1.990569748153078</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.528311917368882</v>
+        <v>0.5121280383192186</v>
       </c>
       <c r="C12">
-        <v>0.1821824037804589</v>
+        <v>0.06968334245539154</v>
       </c>
       <c r="D12">
-        <v>0.1308574897279016</v>
+        <v>0.04970940311348215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4294339026093255</v>
+        <v>0.5997488002672142</v>
       </c>
       <c r="G12">
-        <v>0.0007874888828321275</v>
+        <v>0.002411599675420312</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.555590197897402</v>
+        <v>0.4906596529526155</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.579384006322627</v>
+        <v>1.212516647037788</v>
       </c>
       <c r="O12">
-        <v>1.03064083093939</v>
+        <v>1.98762469656576</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.520107723580878</v>
+        <v>0.5096768996949379</v>
       </c>
       <c r="C13">
-        <v>0.1813738245264318</v>
+        <v>0.06942228931973204</v>
       </c>
       <c r="D13">
-        <v>0.1302329020179656</v>
+        <v>0.04950488665920716</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.42814050900175</v>
+        <v>0.5997057170516129</v>
       </c>
       <c r="G13">
-        <v>0.0007876651742050848</v>
+        <v>0.00241170474732922</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.547367926981138</v>
+        <v>0.4881504601416395</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5807225622964225</v>
+        <v>1.213127077181248</v>
       </c>
       <c r="O13">
-        <v>1.029218249478305</v>
+        <v>1.988250564406798</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.493364195249399</v>
+        <v>0.5016829977974169</v>
       </c>
       <c r="C14">
-        <v>0.1787371409335776</v>
+        <v>0.06857048962575618</v>
       </c>
       <c r="D14">
-        <v>0.1281960234440476</v>
+        <v>0.04883752870958347</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4239528608682264</v>
+        <v>0.5995752605933831</v>
       </c>
       <c r="G14">
-        <v>0.0007882414281122562</v>
+        <v>0.002412049032993677</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.520562536447983</v>
+        <v>0.4799658098476982</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5851179944584004</v>
+        <v>1.215129495307139</v>
       </c>
       <c r="O14">
-        <v>1.02467068831038</v>
+        <v>1.99032367120698</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.476992109164087</v>
+        <v>0.4967863553406744</v>
       </c>
       <c r="C15">
-        <v>0.1771222875843108</v>
+        <v>0.06804839429403842</v>
       </c>
       <c r="D15">
-        <v>0.1269483957941304</v>
+        <v>0.04842845749479352</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4214109242569322</v>
+        <v>0.599503072651089</v>
       </c>
       <c r="G15">
-        <v>0.0007885954274373264</v>
+        <v>0.002412261164945137</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.504150338282983</v>
+        <v>0.4749512366572333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.587833313150341</v>
+        <v>1.216365004032106</v>
       </c>
       <c r="O15">
-        <v>1.021955045343717</v>
+        <v>1.991618107871943</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.383300647529325</v>
+        <v>0.4687239089488173</v>
       </c>
       <c r="C16">
-        <v>0.1678705334929731</v>
+        <v>0.06505126907148906</v>
       </c>
       <c r="D16">
-        <v>0.1197986490615222</v>
+        <v>0.04607974837723816</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.407188990302835</v>
+        <v>0.5992077210126325</v>
       </c>
       <c r="G16">
-        <v>0.0007906400230935105</v>
+        <v>0.002413495958771848</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.41019562087348</v>
+        <v>0.4461962481380226</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6037400709585867</v>
+        <v>1.223582698224014</v>
       </c>
       <c r="O16">
-        <v>1.007436866872823</v>
+        <v>1.999412927538117</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.325930633263937</v>
+        <v>0.4515074519203779</v>
       </c>
       <c r="C17">
-        <v>0.162196298785048</v>
+        <v>0.06320804338584196</v>
       </c>
       <c r="D17">
-        <v>0.1154120070822273</v>
+        <v>0.04463492774293343</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3987619531881421</v>
+        <v>0.5991321135151679</v>
       </c>
       <c r="G17">
-        <v>0.0007919088041905439</v>
+        <v>0.002414270586729994</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.352634992845566</v>
+        <v>0.4285400182457124</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6138010240683585</v>
+        <v>1.228133219503157</v>
       </c>
       <c r="O17">
-        <v>0.9994335232052549</v>
+        <v>2.004531017590352</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.292968387842024</v>
+        <v>0.4416048205511629</v>
       </c>
       <c r="C18">
-        <v>0.1589328995046486</v>
+        <v>0.06214620730195008</v>
       </c>
       <c r="D18">
-        <v>0.1128885798896277</v>
+        <v>0.04380246453105485</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3940204225074027</v>
+        <v>0.5991274245353395</v>
       </c>
       <c r="G18">
-        <v>0.0007926439907291078</v>
+        <v>0.002414722438255196</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.319552677892915</v>
+        <v>0.4183789605346817</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6196965673741062</v>
+        <v>1.230795655704128</v>
       </c>
       <c r="O18">
-        <v>0.9951510203933509</v>
+        <v>2.007598320617049</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.281813684795196</v>
+        <v>0.438251948332379</v>
       </c>
       <c r="C19">
-        <v>0.1578279920219359</v>
+        <v>0.06178640478371733</v>
       </c>
       <c r="D19">
-        <v>0.1120341162787355</v>
+        <v>0.04352036088826594</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.392432774571212</v>
+        <v>0.5991325003694428</v>
       </c>
       <c r="G19">
-        <v>0.0007928938513782199</v>
+        <v>0.002414876511743665</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.308355554337709</v>
+        <v>0.414937648553547</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6217111442268575</v>
+        <v>1.231704856759649</v>
       </c>
       <c r="O19">
-        <v>0.9937551098628177</v>
+        <v>2.008658065716602</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.332034015716175</v>
+        <v>0.4533401965271935</v>
       </c>
       <c r="C20">
-        <v>0.1628002972515645</v>
+        <v>0.06340443039960064</v>
       </c>
       <c r="D20">
-        <v>0.1158790049162803</v>
+        <v>0.0447888808234751</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3996480222880052</v>
+        <v>0.599136146514617</v>
       </c>
       <c r="G20">
-        <v>0.000791773181700827</v>
+        <v>0.002414187473891875</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.358759752237006</v>
+        <v>0.4304201447089042</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.612718708196283</v>
+        <v>1.227644141519967</v>
       </c>
       <c r="O20">
-        <v>1.000252044584556</v>
+        <v>2.00397340397177</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.50121749985226</v>
+        <v>0.5040310322883386</v>
       </c>
       <c r="C21">
-        <v>0.1795115574085173</v>
+        <v>0.06882075554689493</v>
       </c>
       <c r="D21">
-        <v>0.1287942990824718</v>
+        <v>0.04903360952570779</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4251780337343902</v>
+        <v>0.5996119698814795</v>
       </c>
       <c r="G21">
-        <v>0.0007880719548279303</v>
+        <v>0.002411947648113946</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.528434475585669</v>
+        <v>0.4823700993181887</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5838221439282023</v>
+        <v>1.214539467289349</v>
       </c>
       <c r="O21">
-        <v>1.025991791418605</v>
+        <v>1.989709622843364</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.612185681894431</v>
+        <v>0.5371544140212166</v>
       </c>
       <c r="C22">
-        <v>0.1904412172858798</v>
+        <v>0.07234533104512764</v>
       </c>
       <c r="D22">
-        <v>0.1372356132445276</v>
+        <v>0.05179461577600364</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4428874647899477</v>
+        <v>0.6002684891257388</v>
       </c>
       <c r="G22">
-        <v>0.0007856992167542925</v>
+        <v>0.0024105396578529</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.639625083483168</v>
+        <v>0.5162675272928254</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5659587698266151</v>
+        <v>1.206376285302106</v>
       </c>
       <c r="O22">
-        <v>1.045911238338945</v>
+        <v>1.98148827938958</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.552919459507933</v>
+        <v>0.5194766048683732</v>
       </c>
       <c r="C23">
-        <v>0.1846068518753015</v>
+        <v>0.07046562401245637</v>
       </c>
       <c r="D23">
-        <v>0.1327301098064169</v>
+        <v>0.05032223630260546</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4333376502732662</v>
+        <v>0.5998864734350917</v>
       </c>
       <c r="G23">
-        <v>0.00078696146247271</v>
+        <v>0.002411286030997318</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.580249454884779</v>
+        <v>0.4981810685293624</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.575396562443288</v>
+        <v>1.210696398133841</v>
       </c>
       <c r="O23">
-        <v>1.034984421239642</v>
+        <v>1.985775388448303</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.329274613410263</v>
+        <v>0.4525116271596517</v>
       </c>
       <c r="C24">
-        <v>0.1625272333606063</v>
+        <v>0.06331565049420362</v>
       </c>
       <c r="D24">
-        <v>0.1156678798690365</v>
+        <v>0.04471928429030925</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3992471096590791</v>
+        <v>0.5991342024041373</v>
       </c>
       <c r="G24">
-        <v>0.0007918344787229722</v>
+        <v>0.002414225029076791</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.355990718006808</v>
+        <v>0.4295701714314362</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6132076769027179</v>
+        <v>1.227865109513267</v>
       </c>
       <c r="O24">
-        <v>0.999881000918009</v>
+        <v>2.004225112218606</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.089351713562166</v>
+        <v>0.3802744887010192</v>
       </c>
       <c r="C25">
-        <v>0.1387183993829666</v>
+        <v>0.05554000400718451</v>
       </c>
       <c r="D25">
-        <v>0.09724839341262737</v>
+        <v>0.03862069642808308</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.366463601502268</v>
+        <v>0.5998060290066931</v>
       </c>
       <c r="G25">
-        <v>0.0007972989921550582</v>
+        <v>0.002417636483894417</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.115009891605411</v>
+        <v>0.3553481408051482</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6581229969762035</v>
+        <v>1.248108600443523</v>
       </c>
       <c r="O25">
-        <v>0.9741573483488963</v>
+        <v>2.028847651253272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_168/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3270934207224627</v>
+        <v>0.9133892850135226</v>
       </c>
       <c r="C2">
-        <v>0.0497618483414044</v>
+        <v>0.1211643762244989</v>
       </c>
       <c r="D2">
-        <v>0.0340838927683933</v>
+        <v>0.08365275217903445</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6015752203836726</v>
+        <v>0.3453283368436431</v>
       </c>
       <c r="G2">
-        <v>0.002420357861280805</v>
+        <v>0.000801512392024167</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3005255237223139</v>
+        <v>0.9379575949203911</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.26449994209834</v>
+        <v>0.6944850991218168</v>
       </c>
       <c r="O2">
-        <v>2.051033743632459</v>
+        <v>0.9644615583030998</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2910627217096078</v>
+        <v>0.7943697212988354</v>
       </c>
       <c r="C3">
-        <v>0.04581369930286883</v>
+        <v>0.1092396722796991</v>
       </c>
       <c r="D3">
-        <v>0.03098075010060342</v>
+        <v>0.07440867013325203</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6035687897970519</v>
+        <v>0.3326795386726005</v>
       </c>
       <c r="G3">
-        <v>0.002422333900540982</v>
+        <v>0.0008044913994301868</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2632700589465173</v>
+        <v>0.8180196761147727</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.276537187602472</v>
+        <v>0.7210596297990506</v>
       </c>
       <c r="O3">
-        <v>2.068598017890963</v>
+        <v>0.9631012941217136</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2689476428724333</v>
+        <v>0.721345588768628</v>
       </c>
       <c r="C4">
-        <v>0.04337394687955509</v>
+        <v>0.1019000627580766</v>
       </c>
       <c r="D4">
-        <v>0.02906154336075417</v>
+        <v>0.06871510854636398</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6051846900448723</v>
+        <v>0.3256775335852637</v>
       </c>
       <c r="G4">
-        <v>0.00242361251211975</v>
+        <v>0.0008063830435134323</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2403476157911086</v>
+        <v>0.7443475795790846</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.284386696939677</v>
+        <v>0.7382912990832224</v>
       </c>
       <c r="O4">
-        <v>2.080629194667281</v>
+        <v>0.9646633736669088</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2599381430966332</v>
+        <v>0.6915934245259052</v>
       </c>
       <c r="C5">
-        <v>0.04237587996131253</v>
+        <v>0.09890415256910501</v>
       </c>
       <c r="D5">
-        <v>0.02827600853748891</v>
+        <v>0.06639014697943679</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6059417242811875</v>
+        <v>0.3230076749874016</v>
       </c>
       <c r="G5">
-        <v>0.002424150027636726</v>
+        <v>0.0008071698441081019</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2309951949211069</v>
+        <v>0.7143108843069825</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.287700812099093</v>
+        <v>0.7455379055437703</v>
       </c>
       <c r="O5">
-        <v>2.085845407259228</v>
+        <v>0.9658782336111926</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2584422951904912</v>
+        <v>0.6866532253024786</v>
       </c>
       <c r="C6">
-        <v>0.04220992130038326</v>
+        <v>0.09840637089341442</v>
       </c>
       <c r="D6">
-        <v>0.02814536444959259</v>
+        <v>0.06600378980943589</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6060733812187138</v>
+        <v>0.3225751831135923</v>
       </c>
       <c r="G6">
-        <v>0.002424240277987827</v>
+        <v>0.0008073014607149394</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.229441565045974</v>
+        <v>0.7093222211193932</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.288258088638852</v>
+        <v>0.746754606347551</v>
       </c>
       <c r="O6">
-        <v>2.086730482618066</v>
+        <v>0.9661141901394217</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2688261264105165</v>
+        <v>0.7209443274930152</v>
       </c>
       <c r="C7">
-        <v>0.04336050209145981</v>
+        <v>0.1018596795641145</v>
       </c>
       <c r="D7">
-        <v>0.02905096324384004</v>
+        <v>0.06868377313976737</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6051945006677784</v>
+        <v>0.3256407951341629</v>
       </c>
       <c r="G7">
-        <v>0.00242361969444852</v>
+        <v>0.0008063935898151202</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2402215309036535</v>
+        <v>0.7439425630756205</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.284430925020143</v>
+        <v>0.7383881271697419</v>
       </c>
       <c r="O7">
-        <v>2.080698273437292</v>
+        <v>0.9646774478445508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3146687320148089</v>
+        <v>0.8723351340416627</v>
       </c>
       <c r="C8">
-        <v>0.04840379832420183</v>
+        <v>0.1170561247616604</v>
       </c>
       <c r="D8">
-        <v>0.03301683224415086</v>
+        <v>0.0804688392794688</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6021812815665655</v>
+        <v>0.3408030278622434</v>
       </c>
       <c r="G8">
-        <v>0.002421025671225537</v>
+        <v>0.0008025267118349673</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2876900274418972</v>
+        <v>0.8966046523545117</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.268555239916822</v>
+        <v>0.7034547701027947</v>
       </c>
       <c r="O8">
-        <v>2.056831123455709</v>
+        <v>0.9634799113040771</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4046074269969608</v>
+        <v>1.170034745646632</v>
       </c>
       <c r="C9">
-        <v>0.05816757619911073</v>
+        <v>0.1467402230508981</v>
       </c>
       <c r="D9">
-        <v>0.0406822876797861</v>
+        <v>0.1034569222391184</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5993816696541501</v>
+        <v>0.3770127652677999</v>
       </c>
       <c r="G9">
-        <v>0.002416454915803331</v>
+        <v>0.0007954294634799868</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3803776747559198</v>
+        <v>1.196099518085447</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.241058901525406</v>
+        <v>0.6424651242257298</v>
       </c>
       <c r="O9">
-        <v>2.019923085690252</v>
+        <v>0.9813092866348399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4706883870153149</v>
+        <v>1.38985203877462</v>
       </c>
       <c r="C10">
-        <v>0.06526136707520891</v>
+        <v>0.1685180576843948</v>
       </c>
       <c r="D10">
-        <v>0.04624441609881558</v>
+        <v>0.1202991600332837</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5992216058381885</v>
+        <v>0.4081651471380852</v>
       </c>
       <c r="G10">
-        <v>0.002413408421820783</v>
+        <v>0.0007904959737206657</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4482101645114938</v>
+        <v>1.416767329522258</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.223069562461632</v>
+        <v>0.602606960222495</v>
       </c>
       <c r="O10">
-        <v>1.998845657667289</v>
+        <v>1.008394369254717</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5007466181838538</v>
+        <v>1.490232819318578</v>
       </c>
       <c r="C11">
-        <v>0.06847066934234647</v>
+        <v>0.1784283207077664</v>
       </c>
       <c r="D11">
-        <v>0.04875931925090526</v>
+        <v>0.1279574380352386</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5995609981261296</v>
+        <v>0.423465401471006</v>
       </c>
       <c r="G11">
-        <v>0.002412089525166103</v>
+        <v>0.0007883090625329658</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4790069430243307</v>
+        <v>1.517423620990456</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.215365230350663</v>
+        <v>0.5856358879424732</v>
       </c>
       <c r="O11">
-        <v>1.990569748153078</v>
+        <v>1.024147252557398</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5121280383192186</v>
+        <v>1.52831191736891</v>
       </c>
       <c r="C12">
-        <v>0.06968334245539154</v>
+        <v>0.1821824037808142</v>
       </c>
       <c r="D12">
-        <v>0.04970940311348215</v>
+        <v>0.1308574897277452</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5997488002672142</v>
+        <v>0.4294339026093041</v>
       </c>
       <c r="G12">
-        <v>0.002411599675420312</v>
+        <v>0.0007874888828718613</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4906596529526155</v>
+        <v>1.555590197897374</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.212516647037788</v>
+        <v>0.5793840063226199</v>
       </c>
       <c r="O12">
-        <v>1.98762469656576</v>
+        <v>1.030640830939319</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5096768996949379</v>
+        <v>1.520107723580992</v>
       </c>
       <c r="C13">
-        <v>0.06942228931973204</v>
+        <v>0.1813738245262044</v>
       </c>
       <c r="D13">
-        <v>0.04950488665920716</v>
+        <v>0.1302329020180935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5997057170516129</v>
+        <v>0.4281405090017643</v>
       </c>
       <c r="G13">
-        <v>0.00241170474732922</v>
+        <v>0.0007876651741472084</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4881504601416395</v>
+        <v>1.547367926981224</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.213127077181248</v>
+        <v>0.5807225622964225</v>
       </c>
       <c r="O13">
-        <v>1.988250564406798</v>
+        <v>1.029218249478305</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5016829977974169</v>
+        <v>1.493364195249399</v>
       </c>
       <c r="C14">
-        <v>0.06857048962575618</v>
+        <v>0.178737140933336</v>
       </c>
       <c r="D14">
-        <v>0.04883752870958347</v>
+        <v>0.1281960234441613</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5995752605933831</v>
+        <v>0.4239528608682264</v>
       </c>
       <c r="G14">
-        <v>0.002412049032993677</v>
+        <v>0.000788241427996349</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4799658098476982</v>
+        <v>1.520562536447954</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.215129495307139</v>
+        <v>0.5851179944584501</v>
       </c>
       <c r="O14">
-        <v>1.99032367120698</v>
+        <v>1.024670688310366</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4967863553406744</v>
+        <v>1.47699210916403</v>
       </c>
       <c r="C15">
-        <v>0.06804839429403842</v>
+        <v>0.1771222875839555</v>
       </c>
       <c r="D15">
-        <v>0.04842845749479352</v>
+        <v>0.1269483957939457</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.599503072651089</v>
+        <v>0.4214109242569251</v>
       </c>
       <c r="G15">
-        <v>0.002412261164945137</v>
+        <v>0.0007885954274196163</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4749512366572333</v>
+        <v>1.504150338283097</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.216365004032106</v>
+        <v>0.587833313150341</v>
       </c>
       <c r="O15">
-        <v>1.991618107871943</v>
+        <v>1.021955045343759</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4687239089488173</v>
+        <v>1.383300647529325</v>
       </c>
       <c r="C16">
-        <v>0.06505126907148906</v>
+        <v>0.1678705334930584</v>
       </c>
       <c r="D16">
-        <v>0.04607974837723816</v>
+        <v>0.1197986490613516</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5992077210126325</v>
+        <v>0.4071889903028278</v>
       </c>
       <c r="G16">
-        <v>0.002413495958771848</v>
+        <v>0.0007906400230931469</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4461962481380226</v>
+        <v>1.410195620873338</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.223582698224014</v>
+        <v>0.6037400709586365</v>
       </c>
       <c r="O16">
-        <v>1.999412927538117</v>
+        <v>1.007436866872823</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4515074519203779</v>
+        <v>1.325930633263937</v>
       </c>
       <c r="C17">
-        <v>0.06320804338584196</v>
+        <v>0.1621962987851049</v>
       </c>
       <c r="D17">
-        <v>0.04463492774293343</v>
+        <v>0.1154120070821421</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5991321135151679</v>
+        <v>0.3987619531881279</v>
       </c>
       <c r="G17">
-        <v>0.002414270586729994</v>
+        <v>0.0007919088041908606</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4285400182457124</v>
+        <v>1.35263499284568</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.228133219503157</v>
+        <v>0.6138010240684011</v>
       </c>
       <c r="O17">
-        <v>2.004531017590352</v>
+        <v>0.9994335232052549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4416048205511629</v>
+        <v>1.292968387842024</v>
       </c>
       <c r="C18">
-        <v>0.06214620730195008</v>
+        <v>0.1589328995049328</v>
       </c>
       <c r="D18">
-        <v>0.04380246453105485</v>
+        <v>0.1128885798896135</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5991274245353395</v>
+        <v>0.3940204225074169</v>
       </c>
       <c r="G18">
-        <v>0.002414722438255196</v>
+        <v>0.0007926439907283538</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4183789605346817</v>
+        <v>1.319552677892972</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.230795655704128</v>
+        <v>0.619696567374092</v>
       </c>
       <c r="O18">
-        <v>2.007598320617049</v>
+        <v>0.995151020393422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.438251948332379</v>
+        <v>1.281813684795225</v>
       </c>
       <c r="C19">
-        <v>0.06178640478371733</v>
+        <v>0.1578279920218932</v>
       </c>
       <c r="D19">
-        <v>0.04352036088826594</v>
+        <v>0.1120341162788918</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5991325003694428</v>
+        <v>0.3924327745711977</v>
       </c>
       <c r="G19">
-        <v>0.002414876511743665</v>
+        <v>0.0007928938513213801</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.414937648553547</v>
+        <v>1.308355554337794</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.231704856759649</v>
+        <v>0.6217111442268504</v>
       </c>
       <c r="O19">
-        <v>2.008658065716602</v>
+        <v>0.9937551098628603</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4533401965271935</v>
+        <v>1.332034015716317</v>
       </c>
       <c r="C20">
-        <v>0.06340443039960064</v>
+        <v>0.1628002972514935</v>
       </c>
       <c r="D20">
-        <v>0.0447888808234751</v>
+        <v>0.1158790049162093</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.599136146514617</v>
+        <v>0.3996480222880123</v>
       </c>
       <c r="G20">
-        <v>0.002414187473891875</v>
+        <v>0.0007917731816993097</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4304201447089042</v>
+        <v>1.358759752237006</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.227644141519967</v>
+        <v>0.6127187081962688</v>
       </c>
       <c r="O20">
-        <v>2.00397340397177</v>
+        <v>1.00025204458457</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5040310322883386</v>
+        <v>1.501217499852373</v>
       </c>
       <c r="C21">
-        <v>0.06882075554689493</v>
+        <v>0.1795115574085173</v>
       </c>
       <c r="D21">
-        <v>0.04903360952570779</v>
+        <v>0.1287942990824718</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5996119698814795</v>
+        <v>0.4251780337343902</v>
       </c>
       <c r="G21">
-        <v>0.002411947648113946</v>
+        <v>0.0007880719548093895</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4823700993181887</v>
+        <v>1.528434475585698</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.214539467289349</v>
+        <v>0.5838221439281952</v>
       </c>
       <c r="O21">
-        <v>1.989709622843364</v>
+        <v>1.025991791418676</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5371544140212166</v>
+        <v>1.612185681894488</v>
       </c>
       <c r="C22">
-        <v>0.07234533104512764</v>
+        <v>0.1904412172859509</v>
       </c>
       <c r="D22">
-        <v>0.05179461577600364</v>
+        <v>0.1372356132445134</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6002684891257388</v>
+        <v>0.4428874647899121</v>
       </c>
       <c r="G22">
-        <v>0.0024105396578529</v>
+        <v>0.0007856992167537224</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5162675272928254</v>
+        <v>1.639625083483196</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.206376285302106</v>
+        <v>0.5659587698266009</v>
       </c>
       <c r="O22">
-        <v>1.98148827938958</v>
+        <v>1.045911238338959</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5194766048683732</v>
+        <v>1.552919459507933</v>
       </c>
       <c r="C23">
-        <v>0.07046562401245637</v>
+        <v>0.1846068518753725</v>
       </c>
       <c r="D23">
-        <v>0.05032223630260546</v>
+        <v>0.132730109806289</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5998864734350917</v>
+        <v>0.4333376502732591</v>
       </c>
       <c r="G23">
-        <v>0.002411286030997318</v>
+        <v>0.0007869614624151486</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4981810685293624</v>
+        <v>1.580249454884779</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.210696398133841</v>
+        <v>0.575396562443288</v>
       </c>
       <c r="O23">
-        <v>1.985775388448303</v>
+        <v>1.034984421239642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4525116271596517</v>
+        <v>1.329274613410263</v>
       </c>
       <c r="C24">
-        <v>0.06331565049420362</v>
+        <v>0.1625272333608194</v>
       </c>
       <c r="D24">
-        <v>0.04471928429030925</v>
+        <v>0.1156678798690649</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5991342024041373</v>
+        <v>0.3992471096590648</v>
       </c>
       <c r="G24">
-        <v>0.002414225029076791</v>
+        <v>0.0007918344787225807</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4295701714314362</v>
+        <v>1.35599071800678</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.227865109513267</v>
+        <v>0.6132076769027108</v>
       </c>
       <c r="O24">
-        <v>2.004225112218606</v>
+        <v>0.9998810009179806</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3802744887010192</v>
+        <v>1.089351713562252</v>
       </c>
       <c r="C25">
-        <v>0.05554000400718451</v>
+        <v>0.1387183993832224</v>
       </c>
       <c r="D25">
-        <v>0.03862069642808308</v>
+        <v>0.09724839341251368</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5998060290066931</v>
+        <v>0.3664636015022609</v>
       </c>
       <c r="G25">
-        <v>0.002417636483894417</v>
+        <v>0.0007972989921382623</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3553481408051482</v>
+        <v>1.115009891605553</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.248108600443523</v>
+        <v>0.6581229969761857</v>
       </c>
       <c r="O25">
-        <v>2.028847651253272</v>
+        <v>0.9741573483489532</v>
       </c>
     </row>
   </sheetData>
